--- a/data/input/absenteeism_data_36.xlsx
+++ b/data/input/absenteeism_data_36.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>27958</v>
+        <v>96856</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lorenzo da Costa</t>
+          <t>Felipe Gonçalves</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,259 +494,259 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>45090</v>
       </c>
       <c r="G2" t="n">
-        <v>9068.049999999999</v>
+        <v>11387.77</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>15291</v>
+        <v>45851</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Henrique das Neves</t>
+          <t>Maria Julia da Costa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45098</v>
+        <v>45090</v>
       </c>
       <c r="G3" t="n">
-        <v>5365.52</v>
+        <v>6577.16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>78227</v>
+        <v>9635</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Heloísa Correia</t>
+          <t>Dr. Luiz Fernando Silva</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45093</v>
+        <v>45097</v>
       </c>
       <c r="G4" t="n">
-        <v>7191.67</v>
+        <v>10193.57</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>73731</v>
+        <v>61675</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Emanuelly da Rosa</t>
+          <t>Dr. Eduardo da Mota</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45089</v>
+        <v>45086</v>
       </c>
       <c r="G5" t="n">
-        <v>7460.18</v>
+        <v>11733.11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>30626</v>
+        <v>40758</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Heloísa Costa</t>
+          <t>Daniel Costela</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45085</v>
+        <v>45103</v>
       </c>
       <c r="G6" t="n">
-        <v>11330.98</v>
+        <v>9791.51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>55213</v>
+        <v>92970</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Stella Nunes</t>
+          <t>Elisa Melo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45088</v>
+        <v>45095</v>
       </c>
       <c r="G7" t="n">
-        <v>3573.32</v>
+        <v>11763.04</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>30771</v>
+        <v>94193</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ian da Costa</t>
+          <t>Murilo da Rocha</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45095</v>
+        <v>45105</v>
       </c>
       <c r="G8" t="n">
-        <v>10890.94</v>
+        <v>9425.59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3618</v>
+        <v>33132</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Manuela Pires</t>
+          <t>Rodrigo da Luz</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45086</v>
+        <v>45087</v>
       </c>
       <c r="G9" t="n">
-        <v>4552.81</v>
+        <v>6436.77</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>32902</v>
+        <v>10210</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Matheus Santos</t>
+          <t>Bianca Aragão</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45088</v>
+        <v>45089</v>
       </c>
       <c r="G10" t="n">
-        <v>4820.53</v>
+        <v>2883.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>91850</v>
+        <v>7150</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Olivia Nunes</t>
+          <t>João Guilherme Castro</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45090</v>
+        <v>45089</v>
       </c>
       <c r="G11" t="n">
-        <v>6518.48</v>
+        <v>6740.85</v>
       </c>
     </row>
   </sheetData>
